--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_10_41.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_10_41.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>77207.77614938971</v>
+        <v>5151068.340509114</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>77207.77614938971</v>
+        <v>5151068.340509114</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1112021323.728171</v>
+        <v>41150385.42998819</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11882.68467644193</v>
+        <v>983991.3785822472</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>22789.07445355591</v>
+        <v>1798105.188721469</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>33695.46423066986</v>
+        <v>2612218.998860691</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>44823.74396835244</v>
+        <v>3425516.837564996</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>55952.03098554187</v>
+        <v>4238814.676269302</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>67080.32142509989</v>
+        <v>5052112.514973607</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>78208.5503290733</v>
+        <v>5865410.353677906</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>89336.77923304673</v>
+        <v>6678708.192382207</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>100465.0540800546</v>
+        <v>7492006.031086506</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>111593.3445196127</v>
+        <v>8305303.869790806</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>122721.6349591707</v>
+        <v>9118601.708495107</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>133849.9253987287</v>
+        <v>9931899.547199411</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>144978.2158382868</v>
+        <v>10745197.38590372</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>156106.5062778447</v>
+        <v>11558495.22460803</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>167234.7967174029</v>
+        <v>12371793.06331235</v>
       </c>
     </row>
   </sheetData>
